--- a/_docs_/trim1/01_contextualizacion/Plantilla_Gantt_SENA_Optica_Virtual.xlsx
+++ b/_docs_/trim1/01_contextualizacion/Plantilla_Gantt_SENA_Optica_Virtual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APRENDIZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125B8420-7B45-4CD5-B742-295F6C7E3CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C016ED1-D51B-4C57-9543-C9F835A07793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Proyecto Óptica Virtual" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Actividad</t>
   </si>
@@ -54,90 +54,18 @@
     <t>TRIMESTRE 1</t>
   </si>
   <si>
-    <t>Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>Levantamiento de Información</t>
-  </si>
-  <si>
-    <t>Diagrama de Procesos</t>
-  </si>
-  <si>
-    <t>IEEE-830 o Historias de Usuario</t>
-  </si>
-  <si>
-    <t>Diagrama Casos de Uso</t>
-  </si>
-  <si>
-    <t>Casos de Uso Extendido</t>
-  </si>
-  <si>
-    <t>Diagrama de Clases</t>
-  </si>
-  <si>
-    <t>Prototipo No Funcional</t>
-  </si>
-  <si>
-    <t>Patrón de Diseño</t>
-  </si>
-  <si>
     <t>TRIMESTRE 2</t>
   </si>
   <si>
-    <t>Modelo Entidad Relación</t>
-  </si>
-  <si>
-    <t>Modelo Relacional</t>
-  </si>
-  <si>
-    <t>Diccionario de Datos</t>
-  </si>
-  <si>
-    <t>Script de la BBDD</t>
-  </si>
-  <si>
-    <t>Sentencias DDL</t>
-  </si>
-  <si>
-    <t>Consultas DML</t>
-  </si>
-  <si>
-    <t>Automatización de la BBDD</t>
-  </si>
-  <si>
-    <t>Sistema de Información Web – Servidor Local</t>
-  </si>
-  <si>
     <t>TRIMESTRE 3</t>
   </si>
   <si>
-    <t>Planeación de Pruebas</t>
-  </si>
-  <si>
-    <t>Ejecución de Pruebas</t>
-  </si>
-  <si>
     <t>TRIMESTRE 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Manual de Instalación </t>
-  </si>
-  <si>
-    <t>Configuración del Servidor de Aplicaciones</t>
-  </si>
-  <si>
-    <t>Configuración del Servidor de BBDD</t>
-  </si>
-  <si>
     <t>TRIMESTRE 5</t>
   </si>
   <si>
-    <t>Manual de Usuario</t>
-  </si>
-  <si>
-    <t>Sistema de Información Web – Servidor Externo</t>
-  </si>
-  <si>
     <t>PROGRESO</t>
   </si>
   <si>
@@ -145,6 +73,96 @@
   </si>
   <si>
     <t>fecha final</t>
+  </si>
+  <si>
+    <t>Diseño y Planeación del Proyecto</t>
+  </si>
+  <si>
+    <t>Elaboración del Mapa de Procesos (BPMN del negocio)</t>
+  </si>
+  <si>
+    <t>Aplicación de Técnicas de Recolección y Análisis Descriptivo</t>
+  </si>
+  <si>
+    <t>Especificación de Requerimientos Funcionales y No Funcionales</t>
+  </si>
+  <si>
+    <t>Validación de Requerimientos mediante Prototipo</t>
+  </si>
+  <si>
+    <t>Control de Versiones</t>
+  </si>
+  <si>
+    <t>Análisis Técnico y Estimación de Costos</t>
+  </si>
+  <si>
+    <t>Diseño y Documentación de Casos de Uso</t>
+  </si>
+  <si>
+    <t>Diseño del Modelo Entidad-Relación (Crow’s Foot)</t>
+  </si>
+  <si>
+    <t>Normalización del Modelo Relacional (3FN)</t>
+  </si>
+  <si>
+    <t>Elaboración del Diccionario de Datos</t>
+  </si>
+  <si>
+    <t>Diseño del Diagrama de Clases (UML)</t>
+  </si>
+  <si>
+    <t>Diseño del Diagrama de Despliegue (UML)</t>
+  </si>
+  <si>
+    <t>Implementación de Base de Datos (SQL / MongoDB)</t>
+  </si>
+  <si>
+    <t>Pruebas y Consultas de Base de Datos (DML / CRUD)</t>
+  </si>
+  <si>
+    <t>Encriptación y Seguridad de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo Front-End con Simulación de Backend y Autenticación</t>
+  </si>
+  <si>
+    <t>Elaborar el prototipo navegable del software (HTML - CSS)</t>
+  </si>
+  <si>
+    <t>Implementación de API REST Segura</t>
+  </si>
+  <si>
+    <t>Integración del Front-End con API REST (80%)</t>
+  </si>
+  <si>
+    <t>Codificación Completa del Proyecto</t>
+  </si>
+  <si>
+    <t>Integración de API REST con Aplicación Móvi</t>
+  </si>
+  <si>
+    <t>Documentación de API REST (Swagger)</t>
+  </si>
+  <si>
+    <t>Aplicación de Metodología Ágil en Proyecto Móvil</t>
+  </si>
+  <si>
+    <t>TRIMESTRE 6</t>
+  </si>
+  <si>
+    <t>Aplicación de Pruebas de Software</t>
+  </si>
+  <si>
+    <t>Plan de Instalación, Respaldo y Migración</t>
+  </si>
+  <si>
+    <t>Implementación de Modelo de Calidad del Software</t>
+  </si>
+  <si>
+    <t>Documentación Técnica y de Usuario</t>
+  </si>
+  <si>
+    <t>Despliegue del Aplicativo según Arquitectura UML</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -267,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,7 +330,16 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +422,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -423,185 +456,245 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Proyecto Óptica Virtual'!$B$2:$B$29</c:f>
+              <c:f>'Gantt Proyecto Óptica Virtual'!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>Plan de Proyecto</c:v>
+                  <c:v>Diseño y Planeación del Proyecto</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Levantamiento de Información</c:v>
+                  <c:v>Elaboración del Mapa de Procesos (BPMN del negocio)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diagrama de Procesos</c:v>
+                  <c:v>Aplicación de Técnicas de Recolección y Análisis Descriptivo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>IEEE-830 o Historias de Usuario</c:v>
+                  <c:v>Especificación de Requerimientos Funcionales y No Funcionales</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Diagrama Casos de Uso</c:v>
+                  <c:v>Validación de Requerimientos mediante Prototipo</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Casos de Uso Extendido</c:v>
+                  <c:v>Control de Versiones</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Diagrama de Clases</c:v>
+                  <c:v>Actividad</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Prototipo No Funcional</c:v>
+                  <c:v>Análisis Técnico y Estimación de Costos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Patrón de Diseño</c:v>
+                  <c:v>Diseño y Documentación de Casos de Uso</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Diseño del Modelo Entidad-Relación (Crow’s Foot)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Normalización del Modelo Relacional (3FN)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Elaboración del Diccionario de Datos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseño del Diagrama de Clases (UML)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diseño del Diagrama de Despliegue (UML)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Modelo Entidad Relación</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Modelo Relacional</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Diccionario de Datos</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Script de la BBDD</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sentencias DDL</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Consultas DML</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>Automatización de la BBDD</c:v>
+                  <c:v>Implementación de Base de Datos (SQL / MongoDB)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Sistema de Información Web – Servidor Local</c:v>
+                  <c:v>Pruebas y Consultas de Base de Datos (DML / CRUD)</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Encriptación y Seguridad de Datos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Desarrollo Front-End con Simulación de Backend y Autenticación</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Elaborar el prototipo navegable del software (HTML - CSS)</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Planeación de Pruebas</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Ejecución de Pruebas</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>Implementación de API REST Segura</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Integración del Front-End con API REST (80%)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Manual de Instalación </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Configuración del Servidor de Aplicaciones</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Configuración del Servidor de BBDD</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>Codificación Completa del Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Integración de API REST con Aplicación Móvi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Documentación de API REST (Swagger)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Aplicación de Metodología Ágil en Proyecto Móvil</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>Manual de Usuario</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Sistema de Información Web – Servidor Externo</c:v>
+                <c:pt idx="32">
+                  <c:v>Aplicación de Pruebas de Software</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Plan de Instalación, Respaldo y Migración</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Implementación de Modelo de Calidad del Software</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Documentación Técnica y de Usuario</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Despliegue del Aplicativo según Arquitectura UML</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Control de Versiones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Proyecto Óptica Virtual'!$C$2:$C$29</c:f>
+              <c:f>'Gantt Proyecto Óptica Virtual'!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>45853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45859</c:v>
+                  <c:v>45863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45870</c:v>
+                  <c:v>45875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45878</c:v>
+                  <c:v>45890</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45889</c:v>
+                  <c:v>45906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45896</c:v>
+                  <c:v>45921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45906</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45915</c:v>
+                  <c:v>45931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45922</c:v>
+                  <c:v>45941</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>45953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45980</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46002</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>45931</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45939</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45947</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45954</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45963</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45972</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>45982</c:v>
+                  <c:v>46055</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45992</c:v>
+                  <c:v>46069</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>46079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46089</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46119</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>46055</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46085</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>46128</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46184</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>46132</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>46150</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>46180</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>46201</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46253</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46263</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>46213</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>46239</c:v>
+                <c:pt idx="32">
+                  <c:v>46274</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46286</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46310</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +977,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -918,7 +1011,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1190,7 +1283,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1224,7 +1317,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1249,6 +1342,40 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-7AE6-497A-94C0-DFB80F044F2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-0B44-47AA-9D86-F5319D1DC74E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1317,6 +1444,40 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-7AE6-497A-94C0-DFB80F044F2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000034-0B44-47AA-9D86-F5319D1DC74E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1429,6 +1590,42 @@
             </c:extLst>
           </c:dPt>
           <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="26"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -1496,187 +1693,565 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000036-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000038-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003A-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003C-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43137"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+                <a:softEdge rad="76200"/>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT prst="angle"/>
+                <a:bevelB/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003E-0B44-47AA-9D86-F5319D1DC74E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt Proyecto Óptica Virtual'!$B$2:$B$29</c:f>
+              <c:f>'Gantt Proyecto Óptica Virtual'!$B$2:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>Plan de Proyecto</c:v>
+                  <c:v>Diseño y Planeación del Proyecto</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Levantamiento de Información</c:v>
+                  <c:v>Elaboración del Mapa de Procesos (BPMN del negocio)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Diagrama de Procesos</c:v>
+                  <c:v>Aplicación de Técnicas de Recolección y Análisis Descriptivo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>IEEE-830 o Historias de Usuario</c:v>
+                  <c:v>Especificación de Requerimientos Funcionales y No Funcionales</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Diagrama Casos de Uso</c:v>
+                  <c:v>Validación de Requerimientos mediante Prototipo</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Casos de Uso Extendido</c:v>
+                  <c:v>Control de Versiones</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Diagrama de Clases</c:v>
+                  <c:v>Actividad</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Prototipo No Funcional</c:v>
+                  <c:v>Análisis Técnico y Estimación de Costos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Patrón de Diseño</c:v>
+                  <c:v>Diseño y Documentación de Casos de Uso</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Diseño del Modelo Entidad-Relación (Crow’s Foot)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Normalización del Modelo Relacional (3FN)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Elaboración del Diccionario de Datos</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Diseño del Diagrama de Clases (UML)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Diseño del Diagrama de Despliegue (UML)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Modelo Entidad Relación</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Modelo Relacional</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Diccionario de Datos</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Script de la BBDD</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sentencias DDL</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Consultas DML</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>Automatización de la BBDD</c:v>
+                  <c:v>Implementación de Base de Datos (SQL / MongoDB)</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Sistema de Información Web – Servidor Local</c:v>
+                  <c:v>Pruebas y Consultas de Base de Datos (DML / CRUD)</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Encriptación y Seguridad de Datos</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Desarrollo Front-End con Simulación de Backend y Autenticación</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Elaborar el prototipo navegable del software (HTML - CSS)</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Planeación de Pruebas</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Ejecución de Pruebas</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
+                  <c:v>Implementación de API REST Segura</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Integración del Front-End con API REST (80%)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Control de Versiones</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>Manual de Instalación </c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Configuración del Servidor de Aplicaciones</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Configuración del Servidor de BBDD</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
+                  <c:v>Codificación Completa del Proyecto</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Integración de API REST con Aplicación Móvi</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Documentación de API REST (Swagger)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Aplicación de Metodología Ágil en Proyecto Móvil</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Actividad</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>Manual de Usuario</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Sistema de Información Web – Servidor Externo</c:v>
+                <c:pt idx="32">
+                  <c:v>Aplicación de Pruebas de Software</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Plan de Instalación, Respaldo y Migración</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Implementación de Modelo de Calidad del Software</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Documentación Técnica y de Usuario</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Despliegue del Aplicativo según Arquitectura UML</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Control de Versiones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt Proyecto Óptica Virtual'!$E$2:$E$29</c:f>
+              <c:f>'Gantt Proyecto Óptica Virtual'!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49</c:v>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1741,7 +2316,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1846550655"/>
@@ -1755,7 +2330,7 @@
         <c:axId val="1846550655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="46288"/>
+          <c:max val="46345"/>
           <c:min val="45853"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1821,7 +2396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-419"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1846544831"/>
@@ -1865,7 +2440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-419"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1902,7 +2477,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2463,15 +3038,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>212067</xdr:colOff>
+      <xdr:colOff>21567</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>268741</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2784,16 +3359,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
@@ -2818,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -2826,17 +3401,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>45853</v>
       </c>
       <c r="D2" s="2">
-        <v>45858</v>
+        <v>45862</v>
       </c>
       <c r="E2" s="1">
         <f>D2-C2</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -2845,17 +3420,17 @@
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="D3" s="2">
-        <v>45869</v>
+        <v>45874</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E10" si="0">D3-C3</f>
-        <v>10</v>
+        <f t="shared" ref="E3:E39" si="0">D3-C3</f>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -2864,17 +3439,17 @@
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>45870</v>
+        <v>45875</v>
       </c>
       <c r="D4" s="2">
-        <v>45877</v>
+        <v>45889</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -2883,17 +3458,17 @@
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <v>45878</v>
+        <v>45890</v>
       </c>
       <c r="D5" s="2">
-        <v>45888</v>
+        <v>45905</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2902,17 +3477,17 @@
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>45889</v>
+        <v>45906</v>
       </c>
       <c r="D6" s="2">
-        <v>45895</v>
+        <v>45920</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2921,13 +3496,13 @@
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>45896</v>
+        <v>45921</v>
       </c>
       <c r="D7" s="2">
-        <v>45905</v>
+        <v>45930</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -2938,451 +3513,644 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45906</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45914</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45931</v>
+      </c>
+      <c r="D9" s="8">
+        <v>45940</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45941</v>
+      </c>
+      <c r="D10" s="8">
+        <v>45952</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45953</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45963</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45964</v>
+      </c>
+      <c r="D12" s="8">
+        <v>45970</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45971</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45979</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8">
+        <v>45980</v>
+      </c>
+      <c r="D14" s="8">
+        <v>45991</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8">
+        <v>45992</v>
+      </c>
+      <c r="D15" s="8">
+        <v>46001</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="8">
+        <v>46002</v>
+      </c>
+      <c r="D16" s="8">
+        <v>46008</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="8">
+        <v>46055</v>
+      </c>
+      <c r="D18" s="8">
+        <v>46068</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C9" s="2">
-        <v>45915</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45922</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8">
+        <v>46069</v>
+      </c>
+      <c r="D19" s="8">
+        <v>46078</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8">
+        <v>46079</v>
+      </c>
+      <c r="D20" s="8">
+        <v>46088</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="8">
+        <v>46089</v>
+      </c>
+      <c r="D21" s="8">
+        <v>46110</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>46111</v>
+      </c>
+      <c r="D22" s="8">
+        <v>46118</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45922</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45930</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8">
-        <v>45931</v>
-      </c>
-      <c r="D12" s="8">
-        <v>45938</v>
-      </c>
-      <c r="E12" s="7">
-        <f>D12-C12</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="18">
-        <v>45939</v>
-      </c>
-      <c r="D13" s="8">
-        <v>45946</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" ref="E13:E19" si="1">D13-C13</f>
-        <v>7</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8">
-        <v>45947</v>
-      </c>
-      <c r="D14" s="8">
-        <v>45953</v>
-      </c>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>45954</v>
-      </c>
-      <c r="D15" s="8">
-        <v>45962</v>
-      </c>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8">
-        <v>45963</v>
-      </c>
-      <c r="D16" s="8">
-        <v>45971</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45972</v>
-      </c>
-      <c r="D17" s="8">
-        <v>45981</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8">
-        <v>45982</v>
-      </c>
-      <c r="D18" s="8">
-        <v>45991</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8">
-        <v>45992</v>
-      </c>
-      <c r="D19" s="8">
-        <v>46008</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8">
-        <v>46055</v>
-      </c>
-      <c r="D21" s="8">
-        <v>46084</v>
-      </c>
-      <c r="E21" s="7">
-        <f>D21-C21</f>
-        <v>29</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="8">
-        <v>46085</v>
-      </c>
-      <c r="D22" s="8">
-        <v>46126</v>
-      </c>
-      <c r="E22" s="7">
-        <f>D22-C22</f>
-        <v>41</v>
-      </c>
       <c r="F22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>46119</v>
+      </c>
+      <c r="D23" s="8">
+        <v>46126</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>34</v>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="8">
-        <v>46132</v>
-      </c>
-      <c r="D24" s="8">
-        <v>46149</v>
-      </c>
-      <c r="E24" s="7">
-        <f>D24-C24</f>
-        <v>17</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8">
-        <v>46150</v>
+        <v>46128</v>
       </c>
       <c r="D25" s="8">
-        <v>46179</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" ref="E25:E26" si="2">D25-C25</f>
-        <v>29</v>
+        <v>46152</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8">
+        <v>46153</v>
+      </c>
+      <c r="D26" s="8">
+        <v>46183</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="C26" s="8">
-        <v>46180</v>
-      </c>
-      <c r="D26" s="8">
-        <v>46209</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="2"/>
-        <v>29</v>
       </c>
       <c r="F26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8">
+        <v>46184</v>
+      </c>
+      <c r="D27" s="8">
+        <v>46199</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>34</v>
+      <c r="F28" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="8">
-        <v>46213</v>
-      </c>
-      <c r="D28" s="8">
-        <v>46238</v>
-      </c>
-      <c r="E28" s="7">
-        <f>D28-C28</f>
-        <v>25</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="8">
-        <v>46239</v>
+        <v>46201</v>
       </c>
       <c r="D29" s="8">
-        <v>46288</v>
-      </c>
-      <c r="E29" s="7">
-        <f>D29-C29</f>
-        <v>49</v>
+        <v>46228</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8">
+        <v>46229</v>
+      </c>
+      <c r="D30" s="8">
+        <v>46252</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="16">
+      <c r="C31" s="8">
+        <v>46253</v>
+      </c>
+      <c r="D31" s="8">
+        <v>46262</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <v>46263</v>
+      </c>
+      <c r="D32" s="8">
+        <v>46272</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>46274</v>
+      </c>
+      <c r="D34" s="2">
+        <v>46285</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2">
+        <v>46286</v>
+      </c>
+      <c r="D35" s="2">
+        <v>46297</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2">
+        <v>46298</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46309</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46310</v>
+      </c>
+      <c r="D37" s="2">
+        <v>46321</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46322</v>
+      </c>
+      <c r="D38" s="2">
+        <v>46333</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>46334</v>
+      </c>
+      <c r="D39" s="2">
+        <v>46345</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="16">
         <f>C2</f>
         <v>45853</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="16">
-        <f>D29</f>
-        <v>46288</v>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="16">
+        <f>D39</f>
+        <v>46345</v>
       </c>
     </row>
   </sheetData>
